--- a/resumen.xlsx
+++ b/resumen.xlsx
@@ -95,20 +95,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-409]m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="_ [$$-2C0A]\ * #,##0.00_ ;_ [$$-2C0A]\ * \-#,##0.00_ ;_ [$$-2C0A]\ * \-??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="&quot;$ &quot;#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="[$$-2C0A]\ #,##0.00;[$$-2C0A]&quot; -&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="&quot;$ &quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d\-mmm"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00&quot; €&quot;_-;\-* #,##0.00&quot; €&quot;_-;_-* \-??&quot; €&quot;_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="[$$-2C0A]\ #,##0.00;[$$-2C0A]&quot; -&quot;#,##0.00"/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,12 +132,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial Black"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -143,16 +147,19 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -160,28 +167,33 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="20"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="20"/>
       <name val="Antique-OliveTh"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -189,6 +201,7 @@
       <color rgb="FF000090"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -196,6 +209,7 @@
       <color rgb="FF000090"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -203,17 +217,20 @@
       <color rgb="FF000090"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -222,12 +239,14 @@
       <color rgb="FFDD0806"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -422,11 +441,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -519,11 +540,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -547,7 +572,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -555,11 +580,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="169" fontId="11" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -615,7 +640,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="6" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="6" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -639,7 +664,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="4" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="17" fillId="4" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -742,9 +767,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1461240</xdr:colOff>
+      <xdr:colOff>1460880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>992160</xdr:rowOff>
+      <xdr:rowOff>991800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -758,7 +783,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3243600" y="8300520"/>
-          <a:ext cx="2812680" cy="980280"/>
+          <a:ext cx="2812320" cy="979920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -779,9 +804,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1888200</xdr:colOff>
+      <xdr:colOff>1887840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>992160</xdr:rowOff>
+      <xdr:rowOff>991800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -795,7 +820,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7498080" y="8300520"/>
-          <a:ext cx="3702960" cy="980280"/>
+          <a:ext cx="3702600" cy="979920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -816,9 +841,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
+      <xdr:colOff>49680</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -832,7 +857,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12625920" y="8312400"/>
-          <a:ext cx="2397960" cy="1017360"/>
+          <a:ext cx="2397600" cy="1017000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -853,9 +878,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1446480</xdr:colOff>
+      <xdr:colOff>1446120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>992160</xdr:rowOff>
+      <xdr:rowOff>991800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -869,7 +894,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8300520"/>
-          <a:ext cx="3000240" cy="980280"/>
+          <a:ext cx="2999880" cy="979920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,17 +917,17 @@
   <dimension ref="A1:DG544"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B31" activeCellId="0" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0546875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="5.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.63"/>
   </cols>
@@ -1883,9 +1908,9 @@
     <row r="12" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="23"/>
       <c r="G12" s="24"/>
       <c r="H12" s="2"/>
@@ -1972,7 +1997,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="D13" s="25"/>
       <c r="E13" s="21"/>
       <c r="F13" s="23"/>
       <c r="G13" s="24"/>
@@ -2057,14 +2082,14 @@
     <row r="14" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="23"/>
       <c r="G14" s="24"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="25" t="s">
+      <c r="J14" s="26" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="2"/>
@@ -2147,11 +2172,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="16"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2233,11 +2258,11 @@
     <row r="16" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="29"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2319,13 +2344,13 @@
     <row r="17" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33" t="n">
+      <c r="C17" s="33"/>
+      <c r="D17" s="34" t="n">
         <v>45906</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2407,17 +2432,17 @@
     <row r="18" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
-      <c r="C18" s="32" t="n">
+      <c r="C18" s="33" t="n">
         <f aca="false">SUM(C11:C17)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="32" t="n">
+      <c r="D18" s="35"/>
+      <c r="E18" s="33" t="n">
         <f aca="false">SUM(E11:E17)</f>
         <v>0</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35" t="n">
+      <c r="F18" s="35"/>
+      <c r="G18" s="36" t="n">
         <f aca="false">C18-E18</f>
         <v>0</v>
       </c>
@@ -2505,9 +2530,9 @@
       <c r="C19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="20"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -2588,15 +2613,15 @@
       <c r="CF19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2676,17 +2701,17 @@
       <c r="CF20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="43" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="44"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2766,15 +2791,15 @@
       <c r="CF21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="44" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="44"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2854,15 +2879,15 @@
       <c r="CF22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="26.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="45"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47" t="n">
+      <c r="F23" s="47"/>
+      <c r="G23" s="48" t="n">
         <f aca="false">B18</f>
         <v>0</v>
       </c>
@@ -2945,13 +2970,13 @@
       <c r="CF23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="48"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -3057,13 +3082,13 @@
       <c r="DF24" s="2"/>
     </row>
     <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="49"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -3144,13 +3169,13 @@
       <c r="CG25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="80" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -3231,15 +3256,15 @@
       <c r="CG26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -3320,15 +3345,15 @@
       <c r="CG27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3409,13 +3434,13 @@
       <c r="CG28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
+      <c r="A29" s="58"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
